--- a/Check List Javascript/Nodejs Checklist.xlsx
+++ b/Check List Javascript/Nodejs Checklist.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My_Document\Check List Javascript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Mục tìm hiểu</t>
-  </si>
-  <si>
-    <t>Người tìm hiểu</t>
-  </si>
-  <si>
-    <t>Link Slide + Example</t>
   </si>
   <si>
     <t>Reference</t>
@@ -47,16 +49,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://docs.google.com/presentation/d/18IIRdc0AuPsDvKii6o7gHBnJFTHNm0yC/edit#slide=id.p24
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.youtube.com/watch?v=P9csgxBgaZ8
 </t>
@@ -109,108 +115,112 @@
     <t>Database</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.w3schools.com/sql/default.asp</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Mongoose, Sequilize</t>
+  </si>
+  <si>
+    <t>Search Regex, Text Index, Sequelize Migrate? Bulk Insert, Bulk Delete</t>
+  </si>
+  <si>
+    <t>Socket IO</t>
+  </si>
+  <si>
+    <t>Emit? Receive Làm 1 ví dụ với Nodejs</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Dùng để làm gì? Tai sao lại nhanh hơn?</t>
+  </si>
+  <si>
+    <t>Jenkins (CICD)</t>
+  </si>
+  <si>
+    <t>Microservice</t>
+  </si>
+  <si>
+    <t>gRPC, Kafka, monolithic là gì, Microservice là gì? connect DB với Microservice</t>
+  </si>
+  <si>
+    <t>GraphQL, Swagger UI, Docs API</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com/sql/default.asp
 SQL là gì? Quan hệ giữa các bảng? Với từng Quan hệ thì Design DB như nào?
 CRUD? Join giữa các bảng? Truy vấn lồng?  EXIST, IN, ORDER BY, ALIAS, UNION, GROUP BY, HAVING
 Unique Key? Primary keys? foreign key? Auto Incre có lợi ích gì?
 Index, Đánh Index để làm gì, ưu nhược điểm?
 SQL Injection, Views và Trigger trong SQL để làm gì?
 SQL Transaction
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
 MongoDB có Transaction không? 
 </t>
-    </r>
-  </si>
-  <si>
-    <t>Mongoose, Sequilize</t>
-  </si>
-  <si>
-    <t>Search Regex, Text Index, Sequelize Migrate? Bulk Insert, Bulk Delete</t>
-  </si>
-  <si>
-    <t>Socket IO</t>
-  </si>
-  <si>
-    <t>Emit? Receive Làm 1 ví dụ với Nodejs</t>
-  </si>
-  <si>
-    <t>Redis</t>
-  </si>
-  <si>
-    <t>Dùng để làm gì? Tai sao lại nhanh hơn?</t>
-  </si>
-  <si>
-    <t>Jenkins (CICD)</t>
-  </si>
-  <si>
-    <t>Microservice</t>
-  </si>
-  <si>
-    <t>gRPC, Kafka, monolithic là gì, Microservice là gì? connect DB với Microservice</t>
-  </si>
-  <si>
-    <t>GraphQL, Swagger UI, Docs API</t>
-  </si>
-  <si>
-    <t>Pagination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
-    <font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,7 +228,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,37 +237,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="2">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -272,71 +258,80 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -526,257 +521,224 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="17.0"/>
-    <col customWidth="1" min="4" max="4" width="17.88"/>
-    <col customWidth="1" min="5" max="5" width="16.75"/>
-    <col customWidth="1" min="6" max="6" width="39.63"/>
-    <col customWidth="1" min="7" max="7" width="55.75"/>
+    <col min="1" max="2" width="12.6640625" style="10"/>
+    <col min="3" max="3" width="17" style="10" customWidth="1"/>
+    <col min="4" max="4" width="57.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="88.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="59.77734375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="91.33203125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="12.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:5" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="14" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -800,12 +762,13 @@
     <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" location="slide=id.p24" ref="F4"/>
-    <hyperlink r:id="rId3" ref="F5"/>
-    <hyperlink r:id="rId4" location="server-side-example" ref="F6"/>
-    <hyperlink r:id="rId5" ref="G11"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2" location="slide=id.p24"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4" location="server-side-example"/>
+    <hyperlink ref="E11" display="https://www.w3schools.com/sql/default.asp_x000a__x000a_SQL là gì? Quan hệ giữa các bảng? Với từng Quan hệ thì Design DB như nào?_x000a_CRUD? Join giữa các bảng? Truy vấn lồng?  EXIST, IN, ORDER BY, ALIAS, UNION, GROUP BY, HAVING_x000a_Unique Key? Primary keys? foreign key? Auto "/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>